--- a/Arquivos e Sprints/backlogSprint.xlsx
+++ b/Arquivos e Sprints/backlogSprint.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26930"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_5F5D2D60A937A998CD3E4CDAAFD09C40C61DBD2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C656175-9368-4665-B728-454060B1C63B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="141">
   <si>
     <t>NOMES</t>
   </si>
@@ -64,183 +78,294 @@
     <t>Administrador</t>
   </si>
   <si>
+    <t>Elaboração e revisão de casos de uso</t>
+  </si>
+  <si>
+    <t>Seja possível ter uma visão geral das requisições do sistema</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Entregue</t>
+  </si>
+  <si>
+    <t>Elaboração dos diagramas de classe</t>
+  </si>
+  <si>
+    <t>Seja possível ter uma visão sobre as classes, atributos e métodos relacionados ao sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrador/Funcionario </t>
+  </si>
+  <si>
+    <t>Elaboração dos diagramas de sequência</t>
+  </si>
+  <si>
+    <t>Seja possível ter uma visão geral sobre a comunicação entre elementos do sistema</t>
+  </si>
+  <si>
+    <t>Entrega da interface que irá compor a aplicação Desktop/Web</t>
+  </si>
+  <si>
+    <t>Entrega de protótipo Desktop/Web</t>
+  </si>
+  <si>
+    <t>Funcionario</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da parte escrita do projeto PIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaboração da escrita do projeto PIM </t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Revisão da interface com objetivo de torna-la mais acessível</t>
+  </si>
+  <si>
+    <t>Ajuste de recursos de acessibilidade</t>
+  </si>
+  <si>
+    <t>Baixo</t>
+  </si>
+  <si>
+    <t>Produzir diagramas de sequência referente ao projeto PIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento de uma sessão de ajuda </t>
+  </si>
+  <si>
+    <t>Sessão de ajuda</t>
+  </si>
+  <si>
+    <t>Baixa</t>
+  </si>
+  <si>
+    <t>Criar uma sessão para contato com o administrador</t>
+  </si>
+  <si>
+    <t>Contatar o administrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrador </t>
+  </si>
+  <si>
+    <t>Arquitetação da tela de login</t>
+  </si>
+  <si>
+    <t>Criação da tela de login</t>
+  </si>
+  <si>
+    <t>Funcionario/Administrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Criação das funções que auxiliem o usuário sua senha</t>
+  </si>
+  <si>
+    <t>Criação da função recuperar senha</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Elaboração da sessão de gerenciamento de usuários</t>
+  </si>
+  <si>
+    <t>Gerenciamento de usuários</t>
+  </si>
+  <si>
+    <t>Elaboração da sessão de gerencimento de funcionários</t>
+  </si>
+  <si>
+    <t>Gerenciamento de funcionários</t>
+  </si>
+  <si>
+    <t>Elaboração da sessão de geração de folha de pagamento</t>
+  </si>
+  <si>
+    <t>Gerar folha de pagamento</t>
+  </si>
+  <si>
+    <t>Elaboração da sessão de geração de relatório de horas</t>
+  </si>
+  <si>
+    <t>Gerar relatório de horas</t>
+  </si>
+  <si>
+    <t>Finalização do projeto</t>
+  </si>
+  <si>
+    <t>Ajustes finais do projeto</t>
+  </si>
+  <si>
+    <t>Sprints</t>
+  </si>
+  <si>
+    <t>Entregas</t>
+  </si>
+  <si>
+    <t>Elaboração dos casos de uso que irão compor o sistema</t>
+  </si>
+  <si>
+    <t>Encontro com os usuários do sistema (funcionarios e administradores)</t>
+  </si>
+  <si>
+    <t>Gabriel - 05/08/2023</t>
+  </si>
+  <si>
+    <t>Elaboração dos casos de uso de acordo com os requisitos solicitados pelos usuários</t>
+  </si>
+  <si>
+    <t>Emerson - 08/08/2023</t>
+  </si>
+  <si>
+    <t>Elaboração dos diagramas de classe relacionados ao sistema</t>
+  </si>
+  <si>
+    <t>Revisão dos casos de uso</t>
+  </si>
+  <si>
+    <t>Equipe PIM -  25/08/2023</t>
+  </si>
+  <si>
+    <t>Elaboração das classes</t>
+  </si>
+  <si>
+    <t>Gabriel - 25/08/2023</t>
+  </si>
+  <si>
+    <t>Elaboração dos atributos e funções</t>
+  </si>
+  <si>
+    <t>Eduarda / Gabriel -  26/08/2023</t>
+  </si>
+  <si>
+    <t>Revisão da visibilidade dos atributos e funções</t>
+  </si>
+  <si>
+    <t>Gabriel - 28/08/2023</t>
+  </si>
+  <si>
+    <t>Equipe PIM -  30/08/2023</t>
+  </si>
+  <si>
+    <t>Revisão do diagrama de classe</t>
+  </si>
+  <si>
+    <t>Equipe PIM -  31/08/2023</t>
+  </si>
+  <si>
+    <t>Gabriel - 01/09/2023 a 03/09/2023</t>
+  </si>
+  <si>
+    <t>Entrega de protótipo mobile</t>
+  </si>
+  <si>
     <t>Elaboração da interface mobile que irá constituir o sistema</t>
   </si>
   <si>
-    <t>Entrega de protótipo mobile</t>
-  </si>
-  <si>
-    <t>Alta</t>
-  </si>
-  <si>
-    <t>Entregue</t>
-  </si>
-  <si>
-    <t>Elaboração dos casos de uso que irão compor o sistema</t>
-  </si>
-  <si>
-    <t>Elaboração e revisão de casos de uso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrador/Funcionario </t>
-  </si>
-  <si>
-    <t>Elaboração dos diagramas de classe relacionados ao sistema</t>
-  </si>
-  <si>
-    <t>Elaboração dos diagramas de classe</t>
-  </si>
-  <si>
-    <t>Entrega da interface que irá compor a aplicação Desktop/Web</t>
-  </si>
-  <si>
-    <t>Entrega de protótipo Desktop/Web</t>
-  </si>
-  <si>
-    <t>Funcionario</t>
-  </si>
-  <si>
-    <t>Desenvolvimento da parte escrita do projeto PIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaboração da escrita do projeto PIM </t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Revisão da interface com objetivo de torna-la mais acessível</t>
-  </si>
-  <si>
-    <t>Ajuste de recursos de acessibilidade</t>
-  </si>
-  <si>
-    <t>Produzir diagramas de sequência referente ao projeto PIM</t>
-  </si>
-  <si>
-    <t>Elaboração dos diagramas de sequência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvimento de uma sessão de ajuda </t>
-  </si>
-  <si>
-    <t>Sessão de ajuda</t>
-  </si>
-  <si>
-    <t>Baixa</t>
-  </si>
-  <si>
-    <t>Criar uma sessão para contato com o administrador</t>
-  </si>
-  <si>
-    <t>Contatar o administrador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrador </t>
-  </si>
-  <si>
-    <t>Arquitetação da tela de login</t>
-  </si>
-  <si>
-    <t>Criação da tela de login</t>
-  </si>
-  <si>
-    <t>Funcionario/Administrador</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Criação das funções que auxiliem o usuário sua senha</t>
-  </si>
-  <si>
-    <t>Criação da função recuperar senha</t>
-  </si>
-  <si>
-    <t>Elaboração da sessão de gerenciamento de usuários</t>
-  </si>
-  <si>
-    <t>Gerenciamento de usuários</t>
-  </si>
-  <si>
-    <t>Elaboração da sessão de gerencimento de funcionários</t>
-  </si>
-  <si>
-    <t>Gerenciamento de funcionários</t>
-  </si>
-  <si>
-    <t>Elaboração da sessão de geração de folha de pagamento</t>
-  </si>
-  <si>
-    <t>Gerar folha de pagamento</t>
-  </si>
-  <si>
-    <t>Elaboração da sessão de geração de relatório de horas</t>
-  </si>
-  <si>
-    <t>Gerar relatório de horas</t>
-  </si>
-  <si>
-    <t>Finalização do projeto</t>
-  </si>
-  <si>
-    <t>Ajustes finais do projeto</t>
-  </si>
-  <si>
-    <t>Sprints</t>
-  </si>
-  <si>
-    <t>Entregas</t>
-  </si>
-  <si>
     <t>Elaboração dos botões da tela inicial</t>
   </si>
   <si>
+    <t>Igor Prado - 04/09/2023</t>
+  </si>
+  <si>
     <t>Desenvolvimento da tela de gerenciamento de usuários</t>
   </si>
   <si>
+    <t>Igor Prado - 05/09/2023</t>
+  </si>
+  <si>
     <t>Desenvolvimento da tela de gerenciamento de funcionários</t>
   </si>
   <si>
+    <t>Igor Prado - 06/09/2023</t>
+  </si>
+  <si>
     <t>Elaboração da interface de relatório de horas</t>
   </si>
   <si>
+    <t>Igor Prado - 07/09/2023</t>
+  </si>
+  <si>
     <t>Elaboração da tela de gerar folha de pagamento</t>
   </si>
   <si>
-    <t>Encontro com os usuários do sistema (funcionarios e administradores)</t>
-  </si>
-  <si>
-    <t>Gabriel - 25/08/2023</t>
-  </si>
-  <si>
-    <t>Elaboração dos casos de uso de acordo com os requisitos solicitados pelos usuários</t>
-  </si>
-  <si>
-    <t>Revisão dos casos de uso</t>
-  </si>
-  <si>
-    <t>Equipe PIM -  30/08/2023</t>
-  </si>
-  <si>
-    <t>Elaboração das classes</t>
-  </si>
-  <si>
-    <t>Elaboração dos atributos e funções</t>
-  </si>
-  <si>
-    <t>Revisão da visibilidade dos atributos e funções</t>
+    <t>Igor Prado - 09/09/2023</t>
+  </si>
+  <si>
+    <t>Emerson - 12/09/2023</t>
+  </si>
+  <si>
+    <t>Daniel - 15/09/2023</t>
+  </si>
+  <si>
+    <t>Daniel - 17/09/2023</t>
+  </si>
+  <si>
+    <t>Eduarda - 19/09/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igor Guimarães - 21/09/2023 </t>
   </si>
   <si>
     <t>Revisão da estrutura do arquivo PIM</t>
   </si>
   <si>
+    <t>Equipe PIM</t>
+  </si>
+  <si>
+    <t>Gerenciamento de projetos de software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igor Guimarães - Em andamento </t>
+  </si>
+  <si>
+    <t>Programação orientada a objetos II</t>
+  </si>
+  <si>
+    <t>Emerson</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de software para internet</t>
+  </si>
+  <si>
+    <t>Igor Prado</t>
+  </si>
+  <si>
+    <t>Tópicos especiais de programação orientada a objetos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel  </t>
+  </si>
+  <si>
+    <t>Projeto de sistemas orientado a objetos</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Gestão da qualidade</t>
+  </si>
+  <si>
+    <t>Eduarda</t>
+  </si>
+  <si>
+    <t>Empreendedorismo</t>
+  </si>
+  <si>
     <t>Pesquisa sobre principais recursos de acessibilidade</t>
   </si>
   <si>
+    <t xml:space="preserve">Eduarda </t>
+  </si>
+  <si>
     <t>Integração dos recursos de acessibilidade com interface do sistema</t>
   </si>
   <si>
-    <t>Revisão do diagrama de classe</t>
-  </si>
-  <si>
     <t>Revisão do funcionamento do sistema</t>
   </si>
   <si>
@@ -326,117 +451,12 @@
   </si>
   <si>
     <t>Conferir se as funções estão funcionando como planejado</t>
-  </si>
-  <si>
-    <t>Baixo</t>
-  </si>
-  <si>
-    <t>Medio</t>
-  </si>
-  <si>
-    <t>Emerson - Em andamento</t>
-  </si>
-  <si>
-    <t>Daniel - Em andamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduarda - Em andamento </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Igor Guimarães - Em andamento </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduarda </t>
-  </si>
-  <si>
-    <t>Eduarda</t>
-  </si>
-  <si>
-    <t>Gerenciamento de projetos de software</t>
-  </si>
-  <si>
-    <t>Tópicos especiais de programação orientada a objetos</t>
-  </si>
-  <si>
-    <t>Projeto de sistemas orientado a objetos</t>
-  </si>
-  <si>
-    <t>Gestão da qualidade</t>
-  </si>
-  <si>
-    <t>Empreendedorismo</t>
-  </si>
-  <si>
-    <t>Programação orientada a objetos II</t>
-  </si>
-  <si>
-    <t>Desenvolvimento de software para internet</t>
-  </si>
-  <si>
-    <t>Equipe PIM</t>
-  </si>
-  <si>
-    <t>Equipe PIM -  31/08/2023</t>
-  </si>
-  <si>
-    <t>Gabriel - 05/08/2023</t>
-  </si>
-  <si>
-    <t>Emerson - 08/08/2023</t>
-  </si>
-  <si>
-    <t>Equipe PIM -  25/08/2023</t>
-  </si>
-  <si>
-    <t>Eduarda / Gabriel -  26/08/2023</t>
-  </si>
-  <si>
-    <t>Gabriel - 28/08/2023</t>
-  </si>
-  <si>
-    <t>Gabriel - 01/09/2023 a 03/09/2023</t>
-  </si>
-  <si>
-    <t>Igor Prado - 04/09/2023</t>
-  </si>
-  <si>
-    <t>Igor Prado - 05/09/2023</t>
-  </si>
-  <si>
-    <t>Igor Prado - 06/09/2023</t>
-  </si>
-  <si>
-    <t>Igor Prado - 07/09/2023</t>
-  </si>
-  <si>
-    <t>Igor Prado - 09/09/2023</t>
-  </si>
-  <si>
-    <t>Seja possível ter uma visão geral das requisições do sistema</t>
-  </si>
-  <si>
-    <t>Igor Prado</t>
-  </si>
-  <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>Emerson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel  </t>
-  </si>
-  <si>
-    <t>Seja possível ter uma visão sobre as classes, atributos e métodos relacionados ao sistema</t>
-  </si>
-  <si>
-    <t>Seja possível ter uma visão geral sobre a comunicação entre elementos do sistema</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -896,49 +916,55 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -950,6 +976,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -962,43 +1006,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,6 +1037,14 @@
       <color rgb="FFD7FAE6"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1275,18 +1303,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1378,10 +1406,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>18</v>
@@ -1401,10 +1429,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1424,10 +1452,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>18</v>
@@ -1497,7 +1525,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2">
         <v>6</v>
@@ -1512,10 +1540,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>18</v>
@@ -1602,7 +1630,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="F21" s="29">
         <v>11</v>
@@ -1617,10 +1645,10 @@
         <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>18</v>
@@ -1638,10 +1666,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>30</v>
@@ -1659,10 +1687,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>18</v>
@@ -1680,10 +1708,10 @@
         <v>15</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E25" s="29" t="s">
         <v>18</v>
@@ -1701,10 +1729,10 @@
         <v>27</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>30</v>
@@ -1724,675 +1752,675 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" ht="15.75">
-      <c r="A28" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
+      <c r="A28" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="50">
+      <c r="A29" s="63">
         <v>1</v>
       </c>
-      <c r="B29" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="60" t="s">
+      <c r="B29" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="40"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="45">
+        <v>2</v>
+      </c>
+      <c r="B31" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="51"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="25" t="s">
+      <c r="C31" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="62">
-        <v>2</v>
-      </c>
-      <c r="B31" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="26" t="s">
+      <c r="E31" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="63"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="18" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="63"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="26" t="s">
         <v>69</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="65">
+      <c r="A35" s="42">
         <v>3</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="69" t="s">
-        <v>33</v>
-      </c>
       <c r="D35" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="66"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="70"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="38" t="s">
         <v>74</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="67"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="71"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="35" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="62">
+      <c r="A38" s="45">
         <v>4</v>
       </c>
-      <c r="B38" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="72" t="s">
-        <v>16</v>
+      <c r="B38" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>78</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="73"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="26" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="63"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="73"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="26" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="63"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="73"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="26" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="64"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="74"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="50"/>
       <c r="D42" s="22" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="65">
+      <c r="A43" s="42">
         <v>5</v>
       </c>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="65" t="s">
+      <c r="C43" s="42" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E43" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="45">
+        <v>6</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="46"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="18" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="66"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E44" s="27" t="s">
+      <c r="E54" s="31" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="66"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="27" t="s">
+    <row r="55" spans="1:5">
+      <c r="A55" s="47"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="32" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="66"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="67"/>
-      <c r="B47" s="67"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="37" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" s="40">
+        <v>7</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="33" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="62">
-        <v>6</v>
-      </c>
-      <c r="B48" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="63"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="63"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="63"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="63"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="63"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="63"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="64"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="51">
-        <v>7</v>
-      </c>
-      <c r="B56" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="D56" s="33" t="s">
-        <v>72</v>
       </c>
       <c r="E56" s="34" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
       <c r="D57" s="33" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="44">
+      <c r="A58" s="60">
         <v>8</v>
       </c>
-      <c r="B58" s="44" t="s">
+      <c r="B58" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C58" s="44" t="s">
+      <c r="C58" s="60" t="s">
         <v>35</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="45"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="45"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
       <c r="D59" s="6" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="46"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="46"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
       <c r="D60" s="6" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="50">
+      <c r="A61" s="63">
         <v>9</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="50" t="s">
+      <c r="C61" s="63" t="s">
         <v>38</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="51"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
       <c r="D62" s="7" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
       <c r="D63" s="7" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="44">
+      <c r="A64" s="60">
         <v>10</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="44" t="s">
+      <c r="C64" s="60" t="s">
         <v>41</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="45"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
+      <c r="A65" s="61"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="61"/>
       <c r="D65" s="13" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="45"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="45"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
       <c r="D66" s="13" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="46"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
+      <c r="A67" s="62"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="62"/>
       <c r="D67" s="13" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="50">
+      <c r="A68" s="63">
         <v>11</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C68" s="50" t="s">
+      <c r="C68" s="63" t="s">
         <v>44</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="51"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
       <c r="D69" s="11" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="51"/>
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
       <c r="D70" s="11" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="54"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="54"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
       <c r="D71" s="11" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="44">
+      <c r="A72" s="60">
         <v>12</v>
       </c>
-      <c r="B72" s="42" t="s">
+      <c r="B72" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C72" s="42" t="s">
-        <v>46</v>
-      </c>
       <c r="D72" s="12" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="45"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="65"/>
       <c r="D73" s="13" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="45"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="65"/>
       <c r="D74" s="13" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="50">
+      <c r="A75" s="63">
         <v>13</v>
       </c>
-      <c r="B75" s="40" t="s">
+      <c r="B75" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C75" s="40" t="s">
-        <v>48</v>
-      </c>
       <c r="D75" s="10" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="51"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="41"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
       <c r="D76" s="11" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="51"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
       <c r="D77" s="11" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="44">
+      <c r="A78" s="60">
         <v>14</v>
       </c>
-      <c r="B78" s="42" t="s">
+      <c r="B78" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="42" t="s">
-        <v>50</v>
-      </c>
       <c r="D78" s="12" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="45"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="65"/>
       <c r="D79" s="13" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="45"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
+      <c r="A80" s="61"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="65"/>
       <c r="D80" s="13"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="50">
+      <c r="A81" s="63">
         <v>15</v>
       </c>
-      <c r="B81" s="52" t="s">
+      <c r="B81" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="C81" s="50" t="s">
-        <v>52</v>
-      </c>
       <c r="D81" s="15" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="51"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="51"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="74"/>
+      <c r="C82" s="40"/>
       <c r="D82" s="16" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="54"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="51"/>
+      <c r="A83" s="41"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="40"/>
       <c r="D83" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="45">
+      <c r="A84" s="61">
         <v>16</v>
       </c>
-      <c r="B84" s="47" t="s">
+      <c r="B84" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C84" s="44" t="s">
-        <v>54</v>
-      </c>
       <c r="D84" s="14" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="45"/>
-      <c r="B85" s="48"/>
-      <c r="C85" s="45"/>
+      <c r="A85" s="61"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="61"/>
       <c r="D85" s="14" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="45"/>
-      <c r="B86" s="48"/>
-      <c r="C86" s="45"/>
+      <c r="A86" s="61"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="61"/>
       <c r="D86" s="14" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="45"/>
-      <c r="B87" s="48"/>
-      <c r="C87" s="45"/>
+      <c r="A87" s="61"/>
+      <c r="B87" s="71"/>
+      <c r="C87" s="61"/>
       <c r="D87" s="14" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="46"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="46"/>
+      <c r="A88" s="62"/>
+      <c r="B88" s="72"/>
+      <c r="C88" s="62"/>
       <c r="D88" s="23" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2639,20 +2667,25 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="B48:B55"/>
-    <mergeCell ref="C48:C55"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A68:A71"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A64:A67"/>
     <mergeCell ref="A61:A63"/>
@@ -2669,25 +2702,20 @@
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="C31:C34"/>
     <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="B48:B55"/>
+    <mergeCell ref="C48:C55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2695,8 +2723,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C338669122B5C44694053D6EEFD94595" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d35e8009b94db620462b41dcb16435c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="04f82610-d0f3-40d4-885b-4e9c343f34fe" xmlns:ns3="a98dde18-a7ae-43d6-ad4a-a0ff1b576886" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aee158d953a5588606e25d9c672e1d15" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="04f82610-d0f3-40d4-885b-4e9c343f34fe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <ReferenceId xmlns="04f82610-d0f3-40d4-885b-4e9c343f34fe" xsi:nil="true"/>
+    <TaxCatchAll xmlns="a98dde18-a7ae-43d6-ad4a-a0ff1b576886" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C338669122B5C44694053D6EEFD94595" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1986906787b7e0df2669edaf36578ed5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="04f82610-d0f3-40d4-885b-4e9c343f34fe" xmlns:ns3="a98dde18-a7ae-43d6-ad4a-a0ff1b576886" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc35d52aa6f6dec6682988da9543127c" ns2:_="" ns3:_="">
     <xsd:import namespace="04f82610-d0f3-40d4-885b-4e9c343f34fe"/>
     <xsd:import namespace="a98dde18-a7ae-43d6-ad4a-a0ff1b576886"/>
     <xsd:element name="properties">
@@ -2715,6 +2755,7 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2772,6 +2813,11 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2889,7 +2935,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2899,28 +2945,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{897EA936-EDA9-4EBD-BD85-556077E5104B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04f82610-d0f3-40d4-885b-4e9c343f34fe"/>
-    <ds:schemaRef ds:uri="a98dde18-a7ae-43d6-ad4a-a0ff1b576886"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09922339-5624-48D3-A295-1E2E623A64F4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D97FA0-0715-476D-8483-C79E107D3381}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF82C330-1A2E-4CEE-A380-78ACBA842F8D}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D97FA0-0715-476D-8483-C79E107D3381}"/>
 </file>
--- a/Arquivos e Sprints/backlogSprint.xlsx
+++ b/Arquivos e Sprints/backlogSprint.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_5F5D2D60A937A998CD3E4CDAAFD09C40C61DBD2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C656175-9368-4665-B728-454060B1C63B}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="11_5F5D2D60A937A998CD3E4CDAAFD09C40C61DBD2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01D4D092-A6BD-4C4F-BFB0-23613F7578AF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
   <si>
     <t>NOMES</t>
   </si>
@@ -57,13 +60,10 @@
     <t>ID:</t>
   </si>
   <si>
-    <t>Como um:</t>
-  </si>
-  <si>
-    <t>Eu quero ser capaz de:</t>
-  </si>
-  <si>
-    <t>Para que:</t>
+    <t>Tarefa</t>
+  </si>
+  <si>
+    <t>Descrição</t>
   </si>
   <si>
     <t>Prioridade:</t>
@@ -75,9 +75,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Administrador</t>
-  </si>
-  <si>
     <t>Elaboração e revisão de casos de uso</t>
   </si>
   <si>
@@ -93,162 +90,114 @@
     <t>Elaboração dos diagramas de classe</t>
   </si>
   <si>
-    <t>Seja possível ter uma visão sobre as classes, atributos e métodos relacionados ao sistema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrador/Funcionario </t>
+    <t>Visão sobre as classes, atributos e métodos relacionados ao sistema</t>
+  </si>
+  <si>
+    <t>Media</t>
   </si>
   <si>
     <t>Elaboração dos diagramas de sequência</t>
   </si>
   <si>
-    <t>Seja possível ter uma visão geral sobre a comunicação entre elementos do sistema</t>
+    <t>Visão geral sobre a comunicação entre elementos do sistema</t>
+  </si>
+  <si>
+    <t>Entrega de protótipo mobile</t>
+  </si>
+  <si>
+    <t>Elaboração da interface mobile que irá constituir o sistema</t>
+  </si>
+  <si>
+    <t>Entrega de protótipo Desktop/Web</t>
   </si>
   <si>
     <t>Entrega da interface que irá compor a aplicação Desktop/Web</t>
   </si>
   <si>
-    <t>Entrega de protótipo Desktop/Web</t>
-  </si>
-  <si>
-    <t>Funcionario</t>
+    <t xml:space="preserve">Elaboração da escrita do projeto PIM </t>
   </si>
   <si>
     <t>Desenvolvimento da parte escrita do projeto PIM</t>
   </si>
   <si>
-    <t xml:space="preserve">Elaboração da escrita do projeto PIM </t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Revisão da interface com objetivo de torna-la mais acessível</t>
-  </si>
-  <si>
-    <t>Ajuste de recursos de acessibilidade</t>
-  </si>
-  <si>
     <t>Baixo</t>
   </si>
   <si>
+    <t>Criação da tela de login</t>
+  </si>
+  <si>
+    <t>Arquitetação da tela de login</t>
+  </si>
+  <si>
+    <t>Gerenciamento de empresas</t>
+  </si>
+  <si>
+    <t>Elaboração da sessão de geração de relatório de empresas</t>
+  </si>
+  <si>
+    <t>Gerenciamento de usuários</t>
+  </si>
+  <si>
+    <t>Elaboração da sessão de gerenciamento de usuários</t>
+  </si>
+  <si>
+    <t>Gerenciamento de funcionários</t>
+  </si>
+  <si>
+    <t>Elaboração da sessão de gerenciamento de funcionários</t>
+  </si>
+  <si>
+    <t>Sprints</t>
+  </si>
+  <si>
+    <t>Entregas</t>
+  </si>
+  <si>
+    <t>Elaboração dos casos de uso que irão compor o sistema</t>
+  </si>
+  <si>
+    <t>Encontro com os usuários do sistema (funcionarios e administradores)</t>
+  </si>
+  <si>
+    <t>Gabriel - 05/08/2023</t>
+  </si>
+  <si>
+    <t>Elaboração dos casos de uso de acordo com os requisitos solicitados pelos usuários</t>
+  </si>
+  <si>
+    <t>Emerson - 08/08/2023</t>
+  </si>
+  <si>
+    <t>Elaboração dos diagramas de classe relacionados ao sistema</t>
+  </si>
+  <si>
+    <t>Revisão dos casos de uso</t>
+  </si>
+  <si>
+    <t>Equipe PIM -  25/08/2023</t>
+  </si>
+  <si>
+    <t>Elaboração das classes</t>
+  </si>
+  <si>
+    <t>Gabriel - 25/08/2023</t>
+  </si>
+  <si>
+    <t>Elaboração dos atributos e funções</t>
+  </si>
+  <si>
+    <t>Eduarda / Gabriel -  26/08/2023</t>
+  </si>
+  <si>
+    <t>Revisão da visibilidade dos atributos e funções</t>
+  </si>
+  <si>
+    <t>Gabriel - 28/08/2023</t>
+  </si>
+  <si>
     <t>Produzir diagramas de sequência referente ao projeto PIM</t>
   </si>
   <si>
-    <t xml:space="preserve">Desenvolvimento de uma sessão de ajuda </t>
-  </si>
-  <si>
-    <t>Sessão de ajuda</t>
-  </si>
-  <si>
-    <t>Baixa</t>
-  </si>
-  <si>
-    <t>Criar uma sessão para contato com o administrador</t>
-  </si>
-  <si>
-    <t>Contatar o administrador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrador </t>
-  </si>
-  <si>
-    <t>Arquitetação da tela de login</t>
-  </si>
-  <si>
-    <t>Criação da tela de login</t>
-  </si>
-  <si>
-    <t>Funcionario/Administrador</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Criação das funções que auxiliem o usuário sua senha</t>
-  </si>
-  <si>
-    <t>Criação da função recuperar senha</t>
-  </si>
-  <si>
-    <t>Medio</t>
-  </si>
-  <si>
-    <t>Elaboração da sessão de gerenciamento de usuários</t>
-  </si>
-  <si>
-    <t>Gerenciamento de usuários</t>
-  </si>
-  <si>
-    <t>Elaboração da sessão de gerencimento de funcionários</t>
-  </si>
-  <si>
-    <t>Gerenciamento de funcionários</t>
-  </si>
-  <si>
-    <t>Elaboração da sessão de geração de folha de pagamento</t>
-  </si>
-  <si>
-    <t>Gerar folha de pagamento</t>
-  </si>
-  <si>
-    <t>Elaboração da sessão de geração de relatório de horas</t>
-  </si>
-  <si>
-    <t>Gerar relatório de horas</t>
-  </si>
-  <si>
-    <t>Finalização do projeto</t>
-  </si>
-  <si>
-    <t>Ajustes finais do projeto</t>
-  </si>
-  <si>
-    <t>Sprints</t>
-  </si>
-  <si>
-    <t>Entregas</t>
-  </si>
-  <si>
-    <t>Elaboração dos casos de uso que irão compor o sistema</t>
-  </si>
-  <si>
-    <t>Encontro com os usuários do sistema (funcionarios e administradores)</t>
-  </si>
-  <si>
-    <t>Gabriel - 05/08/2023</t>
-  </si>
-  <si>
-    <t>Elaboração dos casos de uso de acordo com os requisitos solicitados pelos usuários</t>
-  </si>
-  <si>
-    <t>Emerson - 08/08/2023</t>
-  </si>
-  <si>
-    <t>Elaboração dos diagramas de classe relacionados ao sistema</t>
-  </si>
-  <si>
-    <t>Revisão dos casos de uso</t>
-  </si>
-  <si>
-    <t>Equipe PIM -  25/08/2023</t>
-  </si>
-  <si>
-    <t>Elaboração das classes</t>
-  </si>
-  <si>
-    <t>Gabriel - 25/08/2023</t>
-  </si>
-  <si>
-    <t>Elaboração dos atributos e funções</t>
-  </si>
-  <si>
-    <t>Eduarda / Gabriel -  26/08/2023</t>
-  </si>
-  <si>
-    <t>Revisão da visibilidade dos atributos e funções</t>
-  </si>
-  <si>
-    <t>Gabriel - 28/08/2023</t>
-  </si>
-  <si>
     <t>Equipe PIM -  30/08/2023</t>
   </si>
   <si>
@@ -261,12 +210,6 @@
     <t>Gabriel - 01/09/2023 a 03/09/2023</t>
   </si>
   <si>
-    <t>Entrega de protótipo mobile</t>
-  </si>
-  <si>
-    <t>Elaboração da interface mobile que irá constituir o sistema</t>
-  </si>
-  <si>
     <t>Elaboração dos botões da tela inicial</t>
   </si>
   <si>
@@ -315,97 +258,73 @@
     <t>Revisão da estrutura do arquivo PIM</t>
   </si>
   <si>
-    <t>Equipe PIM</t>
+    <t>Equipe PIM - 03/10/2023</t>
   </si>
   <si>
     <t>Gerenciamento de projetos de software</t>
   </si>
   <si>
-    <t xml:space="preserve">Igor Guimarães - Em andamento </t>
+    <t xml:space="preserve">Igor Guimarães - 04/10/2023 </t>
   </si>
   <si>
     <t>Programação orientada a objetos II</t>
   </si>
   <si>
-    <t>Emerson</t>
+    <t>Emerson - 05/10/2023</t>
   </si>
   <si>
     <t>Desenvolvimento de software para internet</t>
   </si>
   <si>
-    <t>Igor Prado</t>
+    <t>Igor Prado - 05/10/2023</t>
   </si>
   <si>
     <t>Tópicos especiais de programação orientada a objetos</t>
   </si>
   <si>
-    <t xml:space="preserve">Daniel  </t>
+    <t>Daniel  - 05/10/2023</t>
   </si>
   <si>
     <t>Projeto de sistemas orientado a objetos</t>
   </si>
   <si>
-    <t>Gabriel</t>
+    <t>Gabriel - 06/10/2023</t>
   </si>
   <si>
     <t>Gestão da qualidade</t>
   </si>
   <si>
-    <t>Eduarda</t>
+    <t>Eduarda - 04/10/2023</t>
   </si>
   <si>
     <t>Empreendedorismo</t>
   </si>
   <si>
-    <t>Pesquisa sobre principais recursos de acessibilidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduarda </t>
-  </si>
-  <si>
-    <t>Integração dos recursos de acessibilidade com interface do sistema</t>
-  </si>
-  <si>
-    <t>Revisão do funcionamento do sistema</t>
-  </si>
-  <si>
-    <t>Criação de rotas para o uso do sistema</t>
-  </si>
-  <si>
-    <t>Elaboração de uma sessão que ajude o usuário a se localizar no sistema</t>
-  </si>
-  <si>
-    <t>Criação da caixa de texto para o usuário escrever as suas dúvidas</t>
-  </si>
-  <si>
-    <t>Criação do botão envio da mensagem</t>
-  </si>
-  <si>
-    <t>Conferir se a mensagem está chegando para o administrador</t>
+    <t>Eduarda - 05/10/2023</t>
   </si>
   <si>
     <t>Criação das caixas de texto para inserir dados de login</t>
   </si>
   <si>
-    <t>Criação de botão de ocultar/desocultar senha</t>
-  </si>
-  <si>
-    <t>Criação da sessão esqueci senha</t>
-  </si>
-  <si>
-    <t>Envio da recuperação de senha por e-mail</t>
-  </si>
-  <si>
-    <t>Criação do botão para alteração das datas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criação de um espaço para foto do funcionário </t>
-  </si>
-  <si>
-    <t>Informações do usuário logo abaixo da foto</t>
-  </si>
-  <si>
-    <t>Botão pesquisar e cancelar</t>
+    <t>Igor Prado- 09/10/2023</t>
+  </si>
+  <si>
+    <t>Integração com banco de dados</t>
+  </si>
+  <si>
+    <t>Emerson- 12/10/2023</t>
+  </si>
+  <si>
+    <t>Elaboração da sessão de gerenciamento de empresas</t>
+  </si>
+  <si>
+    <t>Função criar empresas</t>
+  </si>
+  <si>
+    <t>Função editar empresas</t>
+  </si>
+  <si>
+    <t>Exibir informações cadastrais</t>
   </si>
   <si>
     <t>Criação das sessões onde serão mostradas as informações do usuários</t>
@@ -417,47 +336,17 @@
     <t>Cadastrar novo usuário / Informações necessárias para cadastro</t>
   </si>
   <si>
-    <t>Criação das sessões onde serão mostradas as informações do funcionário</t>
-  </si>
-  <si>
-    <t>Botão pesquisar para buscar funcionário por CPF ou CNPJ</t>
-  </si>
-  <si>
-    <t>Cadastrar novo funcionário / Informações necessárias para cadastro</t>
-  </si>
-  <si>
-    <t>Pesquisar funcionário por código</t>
-  </si>
-  <si>
-    <t>Exibir informações do funcionário, cadastrais e referentes ao pagamento</t>
-  </si>
-  <si>
-    <t>Troca de datas do relatório de horas</t>
-  </si>
-  <si>
-    <t>Foto do funcionário / Dados do funcionário</t>
-  </si>
-  <si>
-    <t>Detalhes finais do projeto</t>
-  </si>
-  <si>
-    <t>Ajustes finais</t>
-  </si>
-  <si>
-    <t>Testes do sistema</t>
-  </si>
-  <si>
-    <t>Conferir se as rotas que serão percorridas pelos usuários estão funcionais</t>
-  </si>
-  <si>
-    <t>Conferir se as funções estão funcionando como planejado</t>
+    <t>Criação das sessões onde serão mostradas as informações do funcionários</t>
+  </si>
+  <si>
+    <t>Exibir informações do funcionário</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +368,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -519,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -793,11 +695,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -811,73 +809,220 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -886,140 +1031,77 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1311,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1322,7 +1404,8 @@
     <col min="2" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="87.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="125.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="64.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="88.140625" customWidth="1"/>
@@ -1366,7 +1449,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="81" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3"/>
@@ -1376,198 +1459,186 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="9" t="s">
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1"/>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="29">
+      <c r="D11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="23">
         <v>1</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="29" t="s">
+      <c r="G11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="29" t="s">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
+      <c r="B12" s="67">
+        <v>2</v>
+      </c>
+      <c r="C12" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="29">
-        <v>1</v>
-      </c>
-      <c r="G11" s="29" t="s">
+      <c r="D12" s="67" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="29">
+      <c r="A13" s="1"/>
+      <c r="B13" s="7">
         <v>3</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="C13" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="E13" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="23">
+        <v>3</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D14" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="29">
-        <v>3</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>18</v>
+      <c r="E14" s="68" t="s">
+        <v>20</v>
       </c>
       <c r="F14" s="2">
         <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="29">
+      <c r="A15" s="1"/>
+      <c r="B15" s="32">
         <v>5</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="C15" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="23">
+        <v>5</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1"/>
+      <c r="B16" s="85">
+        <v>6</v>
+      </c>
+      <c r="C16" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="D16" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="E16" s="68" t="s">
         <v>29</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="29">
-        <v>5</v>
-      </c>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2">
-        <v>6</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F16" s="2">
         <v>6</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="29">
+      <c r="A17" s="1"/>
+      <c r="B17" s="82">
         <v>7</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="29">
+      <c r="C17" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="23">
         <v>7</v>
       </c>
-      <c r="G17" s="29"/>
+      <c r="G17" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="85">
         <v>8</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>37</v>
+      <c r="C18" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>16</v>
       </c>
       <c r="F18" s="2">
         <v>8</v>
@@ -1575,41 +1646,37 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="29">
+      <c r="A19" s="1"/>
+      <c r="B19" s="100">
         <v>9</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="29" t="s">
+      <c r="C19" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="23">
+        <v>9</v>
+      </c>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="70">
+        <v>10</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="29">
-        <v>9</v>
-      </c>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>18</v>
+      <c r="E20" s="68" t="s">
+        <v>20</v>
       </c>
       <c r="F20" s="2">
         <v>10</v>
@@ -1617,844 +1684,638 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="29">
-        <v>11</v>
-      </c>
-      <c r="B21" s="29" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75">
+      <c r="A22" s="1"/>
+      <c r="B22" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1"/>
+      <c r="B23" s="40">
+        <v>1</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="F24" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1"/>
+      <c r="B25" s="47">
+        <v>2</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E25" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="29">
-        <v>11</v>
-      </c>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="F25" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="2">
-        <v>12</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="29">
-        <v>13</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="29" t="s">
+      <c r="F26" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="29">
-        <v>13</v>
-      </c>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2">
-        <v>14</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="2">
-        <v>14</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="29">
-        <v>15</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="29">
-        <v>15</v>
-      </c>
-      <c r="G25" s="29"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2">
-        <v>16</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="2">
-        <v>16</v>
-      </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75">
-      <c r="A28" s="57" t="s">
+    <row r="28" spans="1:7">
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="35">
+        <v>3</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="36"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="9" t="s">
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="46"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="63">
-        <v>1</v>
-      </c>
-      <c r="B29" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="68" t="s">
+    <row r="32" spans="1:7">
+      <c r="B32" s="47">
+        <v>4</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="F32" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="28" t="s">
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="40"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="25" t="s">
+      <c r="F33" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="29" t="s">
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="45">
-        <v>2</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="45" t="s">
+      <c r="F34" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="26" t="s">
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="F35" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="26" t="s">
+    <row r="36" spans="2:6">
+      <c r="B36" s="49"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="F36" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="26" t="s">
+    <row r="37" spans="2:6">
+      <c r="B37" s="64">
+        <v>5</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="18" t="s">
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="63"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="26" t="s">
+    <row r="39" spans="2:6">
+      <c r="B39" s="63"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="19" t="s">
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="63"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="42">
-        <v>3</v>
-      </c>
-      <c r="B35" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="54" t="s">
+    <row r="41" spans="2:6">
+      <c r="B41" s="76"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="47">
+        <v>6</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="64">
+        <v>7</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="63"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="38">
+        <v>8</v>
+      </c>
+      <c r="C52" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="39"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="39"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="64">
+        <v>9</v>
+      </c>
+      <c r="C55" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="43"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="44"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="45">
-        <v>4</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="42">
-        <v>5</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E43" s="36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="45">
-        <v>6</v>
-      </c>
-      <c r="B48" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="46"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49" s="31" t="s">
+      <c r="D55" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="63"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="63"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="38">
+        <v>10</v>
+      </c>
+      <c r="C58" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="92" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="39"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="43"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="46"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="46"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="46"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="40">
-        <v>7</v>
-      </c>
-      <c r="B56" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D56" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" s="34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="E57" s="35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="60">
-        <v>8</v>
-      </c>
-      <c r="B58" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="C58" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="61"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="62"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="63">
-        <v>9</v>
-      </c>
-      <c r="B61" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="41"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="60">
-        <v>10</v>
-      </c>
-      <c r="B64" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C64" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="61"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="61"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="62"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="63">
-        <v>11</v>
-      </c>
-      <c r="B68" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>122</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="40"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="11" t="s">
-        <v>123</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="40"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="11" t="s">
-        <v>124</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="41"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="11" t="s">
-        <v>125</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="60">
-        <v>12</v>
-      </c>
-      <c r="B72" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C72" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>126</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="61"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="13" t="s">
-        <v>127</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="61"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="13" t="s">
-        <v>128</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="63">
-        <v>13</v>
-      </c>
-      <c r="B75" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C75" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="40"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="52"/>
-      <c r="D76" s="11" t="s">
-        <v>130</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="40"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="11" t="s">
-        <v>131</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="60">
-        <v>14</v>
-      </c>
-      <c r="B78" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="C78" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>132</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="61"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="13" t="s">
-        <v>133</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="61"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="13"/>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="63">
-        <v>15</v>
-      </c>
-      <c r="B81" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="C81" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>134</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="40"/>
-      <c r="B82" s="74"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="16" t="s">
-        <v>135</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="41"/>
-      <c r="B83" s="74"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="61">
-        <v>16</v>
-      </c>
-      <c r="B84" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="C84" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>136</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="61"/>
-      <c r="B85" s="71"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="14" t="s">
-        <v>137</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="61"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="61"/>
-      <c r="D86" s="14" t="s">
-        <v>138</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="61"/>
-      <c r="B87" s="71"/>
-      <c r="C87" s="61"/>
-      <c r="D87" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="62"/>
-      <c r="B88" s="72"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="23" t="s">
-        <v>140</v>
-      </c>
-    </row>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" s="1" customFormat="1"/>
     <row r="89" spans="1:8">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1"/>
+    <row r="92" spans="1:8">
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
     <row r="93" spans="1:8">
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8">
       <c r="F94" s="1"/>
@@ -2496,10 +2357,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="6:7">
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-    </row>
+    <row r="104" spans="6:7" s="1" customFormat="1"/>
     <row r="105" spans="6:7">
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -2512,7 +2370,10 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="6:7" s="1" customFormat="1"/>
+    <row r="108" spans="6:7">
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+    </row>
     <row r="109" spans="6:7">
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -2649,73 +2510,39 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="6:7">
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-    </row>
-    <row r="144" spans="6:7">
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-    </row>
-    <row r="145" spans="6:7">
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-    </row>
-    <row r="146" spans="6:7">
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
+  <mergeCells count="31">
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="D42:D49"/>
     <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C61:C63"/>
     <mergeCell ref="C58:C60"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="B48:B55"/>
-    <mergeCell ref="C48:C55"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="B50:B51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2723,6 +2550,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="04f82610-d0f3-40d4-885b-4e9c343f34fe">
@@ -2734,7 +2570,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C338669122B5C44694053D6EEFD94595" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1986906787b7e0df2669edaf36578ed5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="04f82610-d0f3-40d4-885b-4e9c343f34fe" xmlns:ns3="a98dde18-a7ae-43d6-ad4a-a0ff1b576886" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc35d52aa6f6dec6682988da9543127c" ns2:_="" ns3:_="">
     <xsd:import namespace="04f82610-d0f3-40d4-885b-4e9c343f34fe"/>
@@ -2935,23 +2771,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D97FA0-0715-476D-8483-C79E107D3381}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09922339-5624-48D3-A295-1E2E623A64F4}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF82C330-1A2E-4CEE-A380-78ACBA842F8D}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D97FA0-0715-476D-8483-C79E107D3381}"/>
 </file>
--- a/Arquivos e Sprints/backlogSprint.xlsx
+++ b/Arquivos e Sprints/backlogSprint.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27018"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="239" documentId="11_5F5D2D60A937A998CD3E4CDAAFD09C40C61DBD2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01D4D092-A6BD-4C4F-BFB0-23613F7578AF}"/>
+  <xr:revisionPtr revIDLastSave="254" documentId="11_5F5D2D60A937A998CD3E4CDAAFD09C40C61DBD2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0AFF716-29B2-44AC-823D-682E85D6DFE9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
   <si>
     <t>NOMES</t>
   </si>
@@ -321,19 +321,37 @@
     <t>Função criar empresas</t>
   </si>
   <si>
+    <t>Emerson - 15/10/2023</t>
+  </si>
+  <si>
     <t>Função editar empresas</t>
   </si>
   <si>
+    <t>Emerson - 17/10/2023</t>
+  </si>
+  <si>
     <t>Exibir informações cadastrais</t>
   </si>
   <si>
+    <t>Gabriel - 15/10/2023</t>
+  </si>
+  <si>
     <t>Criação das sessões onde serão mostradas as informações do usuários</t>
   </si>
   <si>
-    <t>Botão pesquisar para buscar usuário por CPF ou CNPJ</t>
+    <t>Emerson - 18/10/2023</t>
+  </si>
+  <si>
+    <t>Botão pesquisar para buscar funcionário por CPF ou CNPJ</t>
+  </si>
+  <si>
+    <t>Emerson - 20/10/2023</t>
   </si>
   <si>
     <t>Cadastrar novo usuário / Informações necessárias para cadastro</t>
+  </si>
+  <si>
+    <t>Emerson - 21/10/2023</t>
   </si>
   <si>
     <t>Criação das sessões onde serão mostradas as informações do funcionários</t>
@@ -795,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -899,72 +917,183 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -982,126 +1111,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1395,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1449,7 +1458,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3"/>
@@ -1460,10 +1469,10 @@
     </row>
     <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="1"/>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="44" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -1502,13 +1511,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1"/>
-      <c r="B12" s="67">
+      <c r="B12" s="37">
         <v>2</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="37" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1526,7 +1535,7 @@
       <c r="B13" s="7">
         <v>3</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -1547,13 +1556,13 @@
       <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="68" t="s">
+      <c r="E14" s="38" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="2">
@@ -1568,7 +1577,7 @@
       <c r="B15" s="32">
         <v>5</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="39" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -1586,16 +1595,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1"/>
-      <c r="B16" s="85">
+      <c r="B16" s="48">
         <v>6</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="38" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="2">
@@ -1607,7 +1616,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1"/>
-      <c r="B17" s="82">
+      <c r="B17" s="45">
         <v>7</v>
       </c>
       <c r="C17" s="23" t="s">
@@ -1628,16 +1637,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1"/>
-      <c r="B18" s="85">
+      <c r="B18" s="48">
         <v>8</v>
       </c>
-      <c r="C18" s="101" t="s">
+      <c r="C18" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="38" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="2">
@@ -1647,13 +1656,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1"/>
-      <c r="B19" s="100">
+      <c r="B19" s="52">
         <v>9</v>
       </c>
-      <c r="C19" s="100" t="s">
+      <c r="C19" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="45" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="23" t="s">
@@ -1666,16 +1675,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1"/>
-      <c r="B20" s="70">
+      <c r="B20" s="40">
         <v>10</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="89" t="s">
+      <c r="D20" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="38" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="2">
@@ -1694,12 +1703,12 @@
     </row>
     <row r="22" spans="1:7" ht="15.75">
       <c r="A22" s="1"/>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="59"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
       <c r="F22" s="6" t="s">
         <v>39</v>
       </c>
@@ -1707,13 +1716,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1"/>
-      <c r="B23" s="40">
+      <c r="B23" s="63">
         <v>1</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="99" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="18" t="s">
@@ -1726,9 +1735,9 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="63"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="68"/>
       <c r="E24" s="19" t="s">
         <v>43</v>
       </c>
@@ -1739,13 +1748,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1"/>
-      <c r="B25" s="47">
+      <c r="B25" s="80">
         <v>2</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="80" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="20" t="s">
@@ -1758,9 +1767,9 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
       <c r="E26" s="20" t="s">
         <v>48</v>
       </c>
@@ -1771,9 +1780,9 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
       <c r="E27" s="20" t="s">
         <v>50</v>
       </c>
@@ -1783,9 +1792,9 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="20" t="s">
         <v>52</v>
       </c>
@@ -1794,13 +1803,13 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="B29" s="35">
+      <c r="B29" s="91">
         <v>3</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="87" t="s">
         <v>54</v>
       </c>
       <c r="E29" s="26" t="s">
@@ -1811,9 +1820,9 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="B30" s="36"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="55"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="88"/>
       <c r="E30" s="30" t="s">
         <v>56</v>
       </c>
@@ -1822,9 +1831,9 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="B31" s="46"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="56"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="89"/>
       <c r="E31" s="27" t="s">
         <v>21</v>
       </c>
@@ -1833,13 +1842,13 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="B32" s="47">
+      <c r="B32" s="80">
         <v>4</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="81" t="s">
         <v>24</v>
       </c>
       <c r="E32" s="16" t="s">
@@ -1850,9 +1859,9 @@
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="82"/>
       <c r="E33" s="20" t="s">
         <v>61</v>
       </c>
@@ -1861,9 +1870,9 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="51"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="82"/>
       <c r="E34" s="20" t="s">
         <v>63</v>
       </c>
@@ -1872,9 +1881,9 @@
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="51"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="82"/>
       <c r="E35" s="20" t="s">
         <v>65</v>
       </c>
@@ -1883,9 +1892,9 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="49"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="52"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="83"/>
       <c r="E36" s="17" t="s">
         <v>67</v>
       </c>
@@ -1894,10 +1903,10 @@
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="64">
+      <c r="B37" s="67">
         <v>5</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="63" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="77" t="s">
@@ -1911,8 +1920,8 @@
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="63"/>
-      <c r="C38" s="41"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="78"/>
       <c r="E38" s="21" t="s">
         <v>61</v>
@@ -1922,8 +1931,8 @@
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="63"/>
-      <c r="C39" s="41"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="78"/>
       <c r="E39" s="21" t="s">
         <v>63</v>
@@ -1933,8 +1942,8 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="63"/>
-      <c r="C40" s="41"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="78"/>
       <c r="E40" s="21" t="s">
         <v>65</v>
@@ -1945,7 +1954,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="76"/>
-      <c r="C41" s="42"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="79"/>
       <c r="E41" s="21" t="s">
         <v>67</v>
@@ -1955,13 +1964,13 @@
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="47">
+      <c r="B42" s="80">
         <v>6</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="81" t="s">
         <v>28</v>
       </c>
       <c r="E42" s="13" t="s">
@@ -1972,9 +1981,9 @@
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="51"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="82"/>
       <c r="E43" s="14" t="s">
         <v>76</v>
       </c>
@@ -1983,9 +1992,9 @@
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="51"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="82"/>
       <c r="E44" s="14" t="s">
         <v>78</v>
       </c>
@@ -1994,9 +2003,9 @@
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="82"/>
       <c r="E45" s="14" t="s">
         <v>80</v>
       </c>
@@ -2005,9 +2014,9 @@
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="51"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="82"/>
       <c r="E46" s="14" t="s">
         <v>82</v>
       </c>
@@ -2016,9 +2025,9 @@
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="51"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="82"/>
       <c r="E47" s="14" t="s">
         <v>84</v>
       </c>
@@ -2027,9 +2036,9 @@
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="51"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="82"/>
       <c r="E48" s="14" t="s">
         <v>86</v>
       </c>
@@ -2038,24 +2047,24 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="52"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="83"/>
       <c r="E49" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F49" s="66" t="s">
+      <c r="F49" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="64">
+      <c r="B50" s="67">
         <v>7</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="74" t="s">
+      <c r="D50" s="65" t="s">
         <v>31</v>
       </c>
       <c r="E50" s="33" t="s">
@@ -2066,104 +2075,122 @@
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="63"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="75"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="66"/>
       <c r="E51" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F51" s="65" t="s">
+      <c r="F51" s="35" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="38">
+      <c r="B52" s="56">
         <v>8</v>
       </c>
-      <c r="C52" s="86" t="s">
+      <c r="C52" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="87" t="s">
+      <c r="D52" s="60" t="s">
         <v>94</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>95</v>
       </c>
+      <c r="F52" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="39"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="88"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="61"/>
       <c r="E53" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="39"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="94" t="s">
-        <v>97</v>
+      <c r="B54" s="57"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="64">
+      <c r="B55" s="67">
         <v>9</v>
       </c>
-      <c r="C55" s="40" t="s">
+      <c r="C55" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="74" t="s">
+      <c r="D55" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="E55" s="7" t="s">
-        <v>98</v>
+      <c r="E55" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="63"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="8" t="s">
+      <c r="B56" s="68"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="68"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="56">
+        <v>10</v>
+      </c>
+      <c r="C58" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="57"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="69"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="51" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="63"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="38">
-        <v>10</v>
-      </c>
-      <c r="C58" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="95" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="92" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="39"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="91"/>
-      <c r="E59" s="93" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="43"/>
-      <c r="C60" s="97"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="99" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:4">

--- a/Arquivos e Sprints/backlogSprint.xlsx
+++ b/Arquivos e Sprints/backlogSprint.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="254" documentId="11_5F5D2D60A937A998CD3E4CDAAFD09C40C61DBD2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0AFF716-29B2-44AC-823D-682E85D6DFE9}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="11_5F5D2D60A937A998CD3E4CDAAFD09C40C61DBD2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A66C7FC2-F04E-44FF-99A3-31819C3AC605}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="110">
   <si>
     <t>NOMES</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Product Backlog</t>
   </si>
   <si>
-    <t>ID:</t>
+    <t>Sprint</t>
   </si>
   <si>
     <t>Tarefa</t>
@@ -69,9 +69,6 @@
     <t>Prioridade:</t>
   </si>
   <si>
-    <t>Sprint</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -108,10 +105,10 @@
     <t>Elaboração da interface mobile que irá constituir o sistema</t>
   </si>
   <si>
-    <t>Entrega de protótipo Desktop/Web</t>
-  </si>
-  <si>
-    <t>Entrega da interface que irá compor a aplicação Desktop/Web</t>
+    <t>Entrega de protótipo Desktop</t>
+  </si>
+  <si>
+    <t>Entrega da interface que irá compor a aplicação Desktop</t>
   </si>
   <si>
     <t xml:space="preserve">Elaboração da escrita do projeto PIM </t>
@@ -132,7 +129,7 @@
     <t>Gerenciamento de empresas</t>
   </si>
   <si>
-    <t>Elaboração da sessão de geração de relatório de empresas</t>
+    <t>Elaboração da sessão de gerenciamento de empresas</t>
   </si>
   <si>
     <t>Gerenciamento de usuários</t>
@@ -240,6 +237,9 @@
     <t>Igor Prado - 09/09/2023</t>
   </si>
   <si>
+    <t>Entrega do protótipo que irá compor a aplicação Desktop</t>
+  </si>
+  <si>
     <t>Emerson - 12/09/2023</t>
   </si>
   <si>
@@ -249,9 +249,6 @@
     <t>Daniel - 17/09/2023</t>
   </si>
   <si>
-    <t>Eduarda - 19/09/2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">Igor Guimarães - 21/09/2023 </t>
   </si>
   <si>
@@ -276,13 +273,13 @@
     <t>Desenvolvimento de software para internet</t>
   </si>
   <si>
-    <t>Igor Prado - 05/10/2023</t>
+    <t>Daniel - 05/10/2023</t>
   </si>
   <si>
     <t>Tópicos especiais de programação orientada a objetos</t>
   </si>
   <si>
-    <t>Daniel  - 05/10/2023</t>
+    <t>Igor Prado  - 05/10/2023</t>
   </si>
   <si>
     <t>Projeto de sistemas orientado a objetos</t>
@@ -315,34 +312,31 @@
     <t>Emerson- 12/10/2023</t>
   </si>
   <si>
-    <t>Elaboração da sessão de gerenciamento de empresas</t>
-  </si>
-  <si>
     <t>Função criar empresas</t>
   </si>
   <si>
+    <t>Emerson - 13/10/2023</t>
+  </si>
+  <si>
+    <t>Função editar empresas</t>
+  </si>
+  <si>
+    <t>Emerson - 17/10/2023</t>
+  </si>
+  <si>
+    <t>Exibir informações cadastrais</t>
+  </si>
+  <si>
     <t>Emerson - 15/10/2023</t>
   </si>
   <si>
-    <t>Função editar empresas</t>
-  </si>
-  <si>
-    <t>Emerson - 17/10/2023</t>
-  </si>
-  <si>
-    <t>Exibir informações cadastrais</t>
-  </si>
-  <si>
-    <t>Gabriel - 15/10/2023</t>
-  </si>
-  <si>
-    <t>Criação das sessões onde serão mostradas as informações do usuários</t>
+    <t>Criação das sessões onde serão mostradas as informações dos usuários</t>
   </si>
   <si>
     <t>Emerson - 18/10/2023</t>
   </si>
   <si>
-    <t>Botão pesquisar para buscar funcionário por CPF ou CNPJ</t>
+    <t>Botão pesquisar para buscar funcionário por CPF</t>
   </si>
   <si>
     <t>Emerson - 20/10/2023</t>
@@ -351,13 +345,22 @@
     <t>Cadastrar novo usuário / Informações necessárias para cadastro</t>
   </si>
   <si>
-    <t>Emerson - 21/10/2023</t>
+    <t>Emerson - 24/10/2023</t>
   </si>
   <si>
     <t>Criação das sessões onde serão mostradas as informações do funcionários</t>
   </si>
   <si>
-    <t>Exibir informações do funcionário</t>
+    <t>Emerson - 25/10/2023</t>
+  </si>
+  <si>
+    <t>Botões de confirmação</t>
+  </si>
+  <si>
+    <t>Emerson - 28/10/2023</t>
+  </si>
+  <si>
+    <t>Emerson - 31/10/2023</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -606,17 +609,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -640,35 +632,201 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -676,30 +834,10 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -710,102 +848,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -833,283 +875,307 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1402,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1464,133 +1530,115 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="1"/>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="39" t="s">
         <v>12</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1"/>
-      <c r="B11" s="7">
+      <c r="B11" s="38">
         <v>1</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="E11" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="F11" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="F11" s="23">
-        <v>1</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1"/>
-      <c r="B12" s="37">
+      <c r="B12" s="48">
         <v>2</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="E12" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>17</v>
+      <c r="F12" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1"/>
-      <c r="B13" s="7">
+      <c r="B13" s="38">
         <v>3</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="F13" s="23">
-        <v>3</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1"/>
-      <c r="B14" s="2">
+      <c r="B14" s="48">
         <v>4</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="2">
-        <v>4</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>17</v>
+      <c r="E14" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1"/>
-      <c r="B15" s="32">
+      <c r="B15" s="38">
         <v>5</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="23">
-        <v>5</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>17</v>
+      <c r="E15" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1598,41 +1646,35 @@
       <c r="B16" s="48">
         <v>6</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="E16" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="2">
-        <v>6</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>17</v>
+      <c r="F16" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1"/>
-      <c r="B17" s="45">
+      <c r="B17" s="38">
         <v>7</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="23">
-        <v>7</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>17</v>
+      <c r="E17" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1640,57 +1682,54 @@
       <c r="B18" s="48">
         <v>8</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="2">
-        <v>8</v>
-      </c>
-      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1"/>
-      <c r="B19" s="52">
+      <c r="B19" s="38">
         <v>9</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="23">
-        <v>9</v>
-      </c>
-      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1"/>
-      <c r="B20" s="40">
+      <c r="B20" s="49">
         <v>10</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="2">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2"/>
+      <c r="E20" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1"/>
@@ -1703,438 +1742,438 @@
     </row>
     <row r="22" spans="1:7" ht="15.75">
       <c r="A22" s="1"/>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1"/>
-      <c r="B23" s="63">
+      <c r="B23" s="59">
         <v>1</v>
       </c>
-      <c r="C23" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="99" t="s">
+      <c r="C23" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="F23" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>42</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="19" t="s">
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>44</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1"/>
-      <c r="B25" s="80">
+      <c r="B25" s="64">
         <v>2</v>
       </c>
-      <c r="C25" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="80" t="s">
+      <c r="C25" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="F25" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="20" t="s">
+      <c r="B26" s="65"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="20" t="s">
+      <c r="B27" s="65"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="66"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="20" t="s">
+      <c r="F28" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="15" t="s">
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="82">
+        <v>3</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="75" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="B29" s="91">
-        <v>3</v>
-      </c>
-      <c r="C29" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="87" t="s">
+      <c r="E29" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="26" t="s">
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="83"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="B30" s="92"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="30" t="s">
+      <c r="F30" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="30" t="s">
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="84"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="B31" s="93"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="27" t="s">
+    <row r="32" spans="1:7">
+      <c r="B32" s="78">
+        <v>4</v>
+      </c>
+      <c r="C32" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="B32" s="80">
-        <v>4</v>
-      </c>
-      <c r="C32" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="81" t="s">
+      <c r="F32" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="80"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="85">
+        <v>5</v>
+      </c>
+      <c r="C37" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="16" t="s">
+      <c r="D37" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="86"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="18" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="20" t="s">
+      <c r="F38" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="86"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="20" t="s">
+      <c r="F39" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="87"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="18" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="90"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="67">
-        <v>5</v>
-      </c>
-      <c r="C37" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="77" t="s">
+      <c r="F40" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="78">
+        <v>6</v>
+      </c>
+      <c r="C41" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="68"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="68"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="68"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="76"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="29" t="s">
+      <c r="D41" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>73</v>
       </c>
+      <c r="F41" s="21" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="80">
-        <v>6</v>
-      </c>
-      <c r="C42" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="24" t="s">
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="11" t="s">
         <v>75</v>
       </c>
+      <c r="F42" s="22" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" s="25" t="s">
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="11" t="s">
         <v>77</v>
       </c>
+      <c r="F43" s="22" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" s="25" t="s">
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="11" t="s">
         <v>79</v>
       </c>
+      <c r="F44" s="22" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F45" s="25" t="s">
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="11" t="s">
         <v>81</v>
       </c>
+      <c r="F45" s="22" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F46" s="25" t="s">
+      <c r="B46" s="79"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="11" t="s">
         <v>83</v>
       </c>
+      <c r="F46" s="22" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="73"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" s="25" t="s">
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="11" t="s">
         <v>85</v>
       </c>
+      <c r="F47" s="22" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="73"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F48" s="25" t="s">
+      <c r="B48" s="80"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="11" t="s">
         <v>87</v>
       </c>
+      <c r="F48" s="31" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" s="36" t="s">
+      <c r="B49" s="85">
+        <v>7</v>
+      </c>
+      <c r="C49" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="29" t="s">
         <v>89</v>
       </c>
+      <c r="F49" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="67">
-        <v>7</v>
-      </c>
-      <c r="C50" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="65" t="s">
+      <c r="B50" s="86"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" s="51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="101">
+        <v>8</v>
+      </c>
+      <c r="C51" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="68"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F51" s="35" t="s">
+      <c r="D51" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="44" t="s">
         <v>93</v>
       </c>
+      <c r="F51" s="32" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="56">
-        <v>8</v>
-      </c>
-      <c r="C52" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="9" t="s">
+      <c r="B52" s="93"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="48" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="57"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="10" t="s">
+      <c r="B53" s="93"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="57"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="50" t="s">
+      <c r="B54" s="85">
+        <v>9</v>
+      </c>
+      <c r="C54" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="67">
-        <v>9</v>
-      </c>
-      <c r="C55" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" s="33" t="s">
+      <c r="B55" s="86"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="47" t="s">
         <v>101</v>
       </c>
       <c r="F55" s="7" t="s">
@@ -2142,21 +2181,27 @@
       </c>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="68"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="55" t="s">
+      <c r="B56" s="97"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="68"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="55" t="s">
+      <c r="B57" s="93">
+        <v>10</v>
+      </c>
+      <c r="C57" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="45" t="s">
         <v>105</v>
       </c>
       <c r="F57" s="32" t="s">
@@ -2164,34 +2209,32 @@
       </c>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="56">
-        <v>10</v>
-      </c>
-      <c r="C58" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="9" t="s">
+      <c r="B58" s="93"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="45" t="s">
         <v>107</v>
       </c>
+      <c r="F58" s="48" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="57"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="69"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="51" t="s">
-        <v>99</v>
-      </c>
+      <c r="B59" s="94"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" s="49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1"/>
@@ -2294,6 +2337,9 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1"/>
@@ -2313,20 +2359,15 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:8" s="1" customFormat="1"/>
+    <row r="87" spans="1:8" s="1" customFormat="1"/>
+    <row r="88" spans="1:8">
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
     <row r="89" spans="1:8">
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8">
       <c r="F90" s="1"/>
@@ -2380,11 +2421,11 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="6:7">
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-    </row>
-    <row r="104" spans="6:7" s="1" customFormat="1"/>
+    <row r="103" spans="6:7" s="1" customFormat="1"/>
+    <row r="104" spans="6:7">
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+    </row>
     <row r="105" spans="6:7">
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -2533,12 +2574,32 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="6:7">
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="B29:B31"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -2546,30 +2607,6 @@
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="D25:D28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="C42:C49"/>
-    <mergeCell ref="D42:D49"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="B50:B51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2577,27 +2614,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="04f82610-d0f3-40d4-885b-4e9c343f34fe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <ReferenceId xmlns="04f82610-d0f3-40d4-885b-4e9c343f34fe" xsi:nil="true"/>
-    <TaxCatchAll xmlns="a98dde18-a7ae-43d6-ad4a-a0ff1b576886" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C338669122B5C44694053D6EEFD94595" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1986906787b7e0df2669edaf36578ed5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="04f82610-d0f3-40d4-885b-4e9c343f34fe" xmlns:ns3="a98dde18-a7ae-43d6-ad4a-a0ff1b576886" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc35d52aa6f6dec6682988da9543127c" ns2:_="" ns3:_="">
     <xsd:import namespace="04f82610-d0f3-40d4-885b-4e9c343f34fe"/>
@@ -2798,8 +2814,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="04f82610-d0f3-40d4-885b-4e9c343f34fe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <ReferenceId xmlns="04f82610-d0f3-40d4-885b-4e9c343f34fe" xsi:nil="true"/>
+    <TaxCatchAll xmlns="a98dde18-a7ae-43d6-ad4a-a0ff1b576886" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D97FA0-0715-476D-8483-C79E107D3381}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF82C330-1A2E-4CEE-A380-78ACBA842F8D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2807,5 +2844,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF82C330-1A2E-4CEE-A380-78ACBA842F8D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D97FA0-0715-476D-8483-C79E107D3381}"/>
 </file>